--- a/data/agility/kauno-energija_agility.xlsx
+++ b/data/agility/kauno-energija_agility.xlsx
@@ -7,200 +7,126 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Volume &amp; Quality" sheetId="1" r:id="rId1"/>
-    <sheet name="Sentiment" sheetId="2" r:id="rId2"/>
-    <sheet name="Top Archetypes" sheetId="3" r:id="rId3"/>
-    <sheet name="Key Topics" sheetId="4" r:id="rId4"/>
-    <sheet name="Topics per Archetype" sheetId="5" r:id="rId5"/>
-    <sheet name="Raw Data" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="151">
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>16/100</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Positive</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="155">
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Media Outlet</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Snippet</t>
+  </si>
+  <si>
+    <t>UVM (Insights by Similarweb)</t>
+  </si>
+  <si>
+    <t>Journalist Shares</t>
+  </si>
+  <si>
+    <t>Journalist Reach</t>
+  </si>
+  <si>
+    <t>Total Engagement</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Media Outlet City</t>
+  </si>
+  <si>
+    <t>Media Outlet Region</t>
+  </si>
+  <si>
+    <t>Media Outlet Country</t>
+  </si>
+  <si>
+    <t>Advertising Value Equivalency</t>
+  </si>
+  <si>
+    <t>Domain Authority (provided by Moz)</t>
+  </si>
+  <si>
+    <t>Pitch Placement</t>
+  </si>
+  <si>
+    <t>Headline</t>
+  </si>
+  <si>
+    <t>Outlet</t>
+  </si>
+  <si>
+    <t>Published Date</t>
+  </si>
+  <si>
+    <t>Contextual Snippet</t>
+  </si>
+  <si>
+    <t>Impressions</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>AVE(USD)</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>Maintext</t>
+  </si>
+  <si>
+    <t>Publication_Date</t>
+  </si>
+  <si>
+    <t>Full_Title</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Topics_Sentiments</t>
+  </si>
+  <si>
+    <t>Topic 1</t>
+  </si>
+  <si>
+    <t>Sentiment 1</t>
+  </si>
+  <si>
+    <t>Topic 2</t>
+  </si>
+  <si>
+    <t>Sentiment 2</t>
+  </si>
+  <si>
+    <t>Topic 3</t>
+  </si>
+  <si>
+    <t>Sentiment 3</t>
   </si>
   <si>
     <t>Top Archetype</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>The Collaborator</t>
-  </si>
-  <si>
-    <t>The Eco Warrior</t>
-  </si>
-  <si>
-    <t>The Value-Seeker</t>
-  </si>
-  <si>
-    <t>The Expert</t>
-  </si>
-  <si>
-    <t>The Mentor</t>
-  </si>
-  <si>
-    <t>Topic Cluster</t>
-  </si>
-  <si>
-    <t>Festivals and Cultural Events in Kaunas</t>
-  </si>
-  <si>
-    <t>Infrastructure and System Upgrades</t>
-  </si>
-  <si>
-    <t>Eglė Krasauskienė's Role and Communication</t>
-  </si>
-  <si>
-    <t>Economic Growth and Financial Performance</t>
-  </si>
-  <si>
-    <t>Energy and Heating Prices</t>
-  </si>
-  <si>
-    <t>Policy Changes and Regulatory Impacts</t>
-  </si>
-  <si>
-    <t>Environmental Protection and Sustainability</t>
-  </si>
-  <si>
-    <t>Public Complaints and Infrastructure Management</t>
-  </si>
-  <si>
-    <t>Community Engagement and Participation</t>
-  </si>
-  <si>
-    <t>Archetype</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Media Outlet</t>
-  </si>
-  <si>
-    <t>Published</t>
-  </si>
-  <si>
-    <t>Snippet</t>
-  </si>
-  <si>
-    <t>UVM (Insights by Similarweb)</t>
-  </si>
-  <si>
-    <t>Journalist Shares</t>
-  </si>
-  <si>
-    <t>Journalist Reach</t>
-  </si>
-  <si>
-    <t>Total Engagement</t>
-  </si>
-  <si>
-    <t>Sentiment</t>
-  </si>
-  <si>
-    <t>Media Outlet City</t>
-  </si>
-  <si>
-    <t>Media Outlet Region</t>
-  </si>
-  <si>
-    <t>Media Outlet Country</t>
-  </si>
-  <si>
-    <t>Advertising Value Equivalency</t>
-  </si>
-  <si>
-    <t>Domain Authority (provided by Moz)</t>
-  </si>
-  <si>
-    <t>Pitch Placement</t>
-  </si>
-  <si>
-    <t>Headline</t>
-  </si>
-  <si>
-    <t>Outlet</t>
-  </si>
-  <si>
-    <t>Published Date</t>
-  </si>
-  <si>
-    <t>Contextual Snippet</t>
-  </si>
-  <si>
-    <t>Impressions</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>AVE(USD)</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>Maintext</t>
-  </si>
-  <si>
-    <t>Publication_Date</t>
-  </si>
-  <si>
-    <t>Full_Title</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>Topics_Sentiments</t>
-  </si>
-  <si>
-    <t>Topic 1</t>
-  </si>
-  <si>
-    <t>Sentiment 1</t>
-  </si>
-  <si>
-    <t>Topic 2</t>
-  </si>
-  <si>
-    <t>Sentiment 2</t>
-  </si>
-  <si>
-    <t>Topic 3</t>
-  </si>
-  <si>
-    <t>Sentiment 3</t>
-  </si>
-  <si>
     <t>Cluster_Topic2</t>
   </si>
   <si>
@@ -208,6 +134,33 @@
   </si>
   <si>
     <t>Cluster_Topic3</t>
+  </si>
+  <si>
+    <t>query_occurrences</t>
+  </si>
+  <si>
+    <t>term_in_truncated_maintext_100</t>
+  </si>
+  <si>
+    <t>term_in_truncated_maintext_200</t>
+  </si>
+  <si>
+    <t>term_in_title</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Log_Rank</t>
+  </si>
+  <si>
+    <t>Quality_Score</t>
+  </si>
+  <si>
+    <t>BMQ</t>
   </si>
   <si>
     <t>Vilijampolėje - sujudimas dėl žalios spalvos nuotekų: švenčiama Šv. Patriko diena?</t>
@@ -366,6 +319,15 @@
   </si>
   <si>
     <t>Anot „Kauno energijos“ vadovo Tomo Garasimavičiaus, Petrašiūnų elektrinė, kaip festivalio namai, pasirinkta neatsitiktinai. Tai – svarbus bei išskirtinis Kauno pramoninis objektas, turintis gilią istoriją.</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
   </si>
   <si>
     <t>Vilnius</t>
@@ -717,6 +679,51 @@
 Sentiment 2: Positive
 Topic 3: Šiuolaikinis menas
 Sentiment 3: Positive</t>
+  </si>
+  <si>
+    <t>The Eco Warrior</t>
+  </si>
+  <si>
+    <t>The Mentor</t>
+  </si>
+  <si>
+    <t>The Expert</t>
+  </si>
+  <si>
+    <t>The Value-Seeker</t>
+  </si>
+  <si>
+    <t>The Collaborator</t>
+  </si>
+  <si>
+    <t>Environmental Protection and Sustainability</t>
+  </si>
+  <si>
+    <t>Energy and Heating Prices</t>
+  </si>
+  <si>
+    <t>Infrastructure and System Upgrades</t>
+  </si>
+  <si>
+    <t>Policy Changes and Regulatory Impacts</t>
+  </si>
+  <si>
+    <t>Eglė Krasauskienė's Role and Communication</t>
+  </si>
+  <si>
+    <t>Economic Growth and Financial Performance</t>
+  </si>
+  <si>
+    <t>Public Complaints and Infrastructure Management</t>
+  </si>
+  <si>
+    <t>Festivals and Cultural Events in Kaunas</t>
+  </si>
+  <si>
+    <t>Community Engagement and Participation</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1091,566 +1098,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:AW17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>18.8</v>
-      </c>
-      <c r="B2">
-        <v>31.2</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>31.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>12.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>4.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>41.7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>33.3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>16.7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>83.3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>16.7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>33.3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>16.7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>16.7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>55.6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>22.2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>11.1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>26.7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>13.3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:40">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E2" s="3">
         <v>45958.11894675926</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="G2">
         <v>1048872</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O2">
         <v>9702.07</v>
@@ -1659,90 +1285,117 @@
         <v>70</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="T2" s="3">
         <v>45958</v>
       </c>
       <c r="U2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="V2">
         <v>1048872</v>
       </c>
       <c r="W2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X2">
         <v>9702.07</v>
       </c>
       <c r="Y2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AA2" s="3">
         <v>45958</v>
       </c>
       <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO2">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT2">
+        <v>11378</v>
+      </c>
+      <c r="AU2">
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <v>0.3732479397052577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AC2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E3" s="3">
         <v>45952.14949074074</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G3">
         <v>1048872</v>
       </c>
       <c r="K3" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="N3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O3">
         <v>9702.07</v>
@@ -1751,99 +1404,126 @@
         <v>70</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="T3" s="3">
         <v>45952</v>
       </c>
       <c r="U3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="V3">
         <v>1048872</v>
       </c>
       <c r="W3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X3">
         <v>9702.07</v>
       </c>
       <c r="Y3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="AA3" s="3">
         <v>45952</v>
       </c>
       <c r="AB3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO3">
+        <v>8</v>
+      </c>
+      <c r="AP3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT3">
+        <v>11378</v>
+      </c>
+      <c r="AU3">
+        <v>0.8498</v>
+      </c>
+      <c r="AV3">
+        <v>3</v>
+      </c>
+      <c r="AW3">
+        <v>0.7760942250231373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AC3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E4" s="3">
         <v>45953.0808912037</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G4">
         <v>1580314</v>
       </c>
       <c r="K4" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O4">
         <v>14617.9</v>
@@ -1852,99 +1532,126 @@
         <v>68</v>
       </c>
       <c r="R4" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="S4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="T4" s="3">
         <v>45953</v>
       </c>
       <c r="U4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="V4">
         <v>1580314</v>
       </c>
       <c r="W4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X4">
         <v>14617.9</v>
       </c>
       <c r="Y4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="AA4" s="3">
         <v>45953.23888888889</v>
       </c>
       <c r="AB4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO4">
+        <v>2</v>
+      </c>
+      <c r="AP4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT4">
+        <v>4977</v>
+      </c>
+      <c r="AU4">
+        <v>0.762</v>
+      </c>
+      <c r="AV4">
+        <v>2</v>
+      </c>
+      <c r="AW4">
+        <v>0.5604185229993759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AC4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E5" s="3">
         <v>45953.05180555556</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G5">
         <v>1435066</v>
       </c>
       <c r="K5" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O5">
         <v>13274.36</v>
@@ -1953,90 +1660,117 @@
         <v>73</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T5" s="3">
         <v>45953</v>
       </c>
       <c r="U5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="V5">
         <v>1435066</v>
       </c>
       <c r="W5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X5">
         <v>13274.36</v>
       </c>
       <c r="Y5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AA5" s="3">
         <v>45953.34103009259</v>
       </c>
       <c r="AB5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AD5" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="AF5" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="AH5" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="AL5" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="AM5" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="AN5" t="s">
-        <v>16</v>
+        <v>149</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT5">
+        <v>8691</v>
+      </c>
+      <c r="AU5">
+        <v>0.6995999999999999</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0.376904070314893</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:49">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" t="s">
         <v>80</v>
-      </c>
-      <c r="D6" t="s">
-        <v>94</v>
       </c>
       <c r="E6" s="3">
         <v>45929.17901620371</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G6">
         <v>1048872</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="N6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O6">
         <v>9702.07</v>
@@ -2045,99 +1779,126 @@
         <v>70</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="T6" s="3">
         <v>45929</v>
       </c>
       <c r="U6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="V6">
         <v>1048872</v>
       </c>
       <c r="W6" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X6">
         <v>9702.07</v>
       </c>
       <c r="Y6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AA6" s="3">
         <v>45929</v>
       </c>
       <c r="AB6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="AC6" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AD6" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AF6" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AH6" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="AL6" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="AM6" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="AN6" t="s">
-        <v>16</v>
+        <v>149</v>
+      </c>
+      <c r="AO6">
+        <v>1</v>
+      </c>
+      <c r="AP6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT6">
+        <v>11378</v>
+      </c>
+      <c r="AU6">
+        <v>0.6513</v>
+      </c>
+      <c r="AV6">
+        <v>2</v>
+      </c>
+      <c r="AW6">
+        <v>0.4982479397052577</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:49">
       <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" t="s">
-        <v>95</v>
       </c>
       <c r="E7" s="3">
         <v>45937.72211805556</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G7">
         <v>1580314</v>
       </c>
       <c r="K7" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O7">
         <v>14617.9</v>
@@ -2146,96 +1907,123 @@
         <v>68</v>
       </c>
       <c r="R7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="S7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="T7" s="3">
         <v>45937</v>
       </c>
       <c r="U7" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="V7">
         <v>1580314</v>
       </c>
       <c r="W7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X7">
         <v>14617.9</v>
       </c>
       <c r="Y7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AA7" s="3">
         <v>45937.86805555555</v>
       </c>
       <c r="AB7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="AC7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="AD7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AF7" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="AH7" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="AL7" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="AM7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="AN7" t="s">
-        <v>19</v>
+        <v>148</v>
+      </c>
+      <c r="AO7">
+        <v>5</v>
+      </c>
+      <c r="AP7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT7">
+        <v>4977</v>
+      </c>
+      <c r="AU7">
+        <v>0.6118</v>
+      </c>
+      <c r="AV7">
+        <v>1</v>
+      </c>
+      <c r="AW7">
+        <v>0.5027691225863341</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:49">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" t="s">
         <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>96</v>
       </c>
       <c r="E8" s="3">
         <v>45937.44717592592</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G8">
         <v>1435066</v>
       </c>
       <c r="K8" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O8">
         <v>13274.36</v>
@@ -2244,96 +2032,123 @@
         <v>73</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="S8" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T8" s="3">
         <v>45937</v>
       </c>
       <c r="U8" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="V8">
         <v>1435066</v>
       </c>
       <c r="W8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X8">
         <v>13274.36</v>
       </c>
       <c r="Y8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AA8" s="3">
         <v>45937.54561342593</v>
       </c>
       <c r="AB8" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="AC8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="AD8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO8">
+        <v>7</v>
+      </c>
+      <c r="AP8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT8">
+        <v>8691</v>
+      </c>
+      <c r="AU8">
+        <v>0.5784</v>
+      </c>
+      <c r="AV8">
         <v>2</v>
       </c>
-      <c r="AH8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>14</v>
+      <c r="AW8">
+        <v>0.6449353274500165</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:49">
       <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E9" s="3">
         <v>45929.11326388889</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G9">
         <v>1435066</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O9">
         <v>13274.36</v>
@@ -2342,90 +2157,117 @@
         <v>73</v>
       </c>
       <c r="R9" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="S9" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T9" s="3">
         <v>45929</v>
       </c>
       <c r="U9" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="V9">
         <v>1435066</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X9">
         <v>13274.36</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AA9" s="3">
         <v>45929.38902777778</v>
       </c>
       <c r="AB9" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="AC9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AD9" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="AF9" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AH9" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="AL9" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="AM9" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="AN9" t="s">
-        <v>16</v>
+        <v>149</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT9">
+        <v>8691</v>
+      </c>
+      <c r="AU9">
+        <v>0.5494</v>
+      </c>
+      <c r="AV9">
+        <v>2</v>
+      </c>
+      <c r="AW9">
+        <v>0.5019040703148929</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:49">
       <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3">
         <v>45916.07192129629</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G10">
         <v>1048872</v>
       </c>
       <c r="K10" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O10">
         <v>9702.07</v>
@@ -2434,90 +2276,117 @@
         <v>70</v>
       </c>
       <c r="R10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="T10" s="3">
         <v>45916</v>
       </c>
       <c r="U10" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="V10">
         <v>1048872</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X10">
         <v>9702.07</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AA10" s="3">
         <v>45908</v>
       </c>
       <c r="AB10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="AC10" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="AD10" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AF10" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="AL10" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="AM10" t="s">
-        <v>19</v>
+        <v>148</v>
       </c>
       <c r="AN10" t="s">
-        <v>17</v>
+        <v>150</v>
+      </c>
+      <c r="AO10">
+        <v>5</v>
+      </c>
+      <c r="AP10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT10">
+        <v>11378</v>
+      </c>
+      <c r="AU10">
+        <v>0.5239</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>0.4915473010648426</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:49">
       <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3">
         <v>45900.28684027777</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="G11">
         <v>1048872</v>
       </c>
       <c r="K11" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O11">
         <v>9702.07</v>
@@ -2526,96 +2395,123 @@
         <v>70</v>
       </c>
       <c r="R11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="T11" s="3">
         <v>45900</v>
       </c>
       <c r="U11" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="V11">
         <v>1048872</v>
       </c>
       <c r="W11" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X11">
         <v>9702.07</v>
       </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="AA11" s="3">
         <v>45897</v>
       </c>
       <c r="AB11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="AC11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="AD11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK11" t="s">
         <v>144</v>
       </c>
-      <c r="AF11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AL11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO11">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT11">
+        <v>11378</v>
+      </c>
+      <c r="AU11">
+        <v>0.5011</v>
+      </c>
+      <c r="AV11">
         <v>2</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>21</v>
+      <c r="AW11">
+        <v>0.4982479397052577</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:49">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E12" s="3">
         <v>45894.46275462963</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G12">
         <v>1580314</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O12">
         <v>14617.9</v>
@@ -2624,96 +2520,123 @@
         <v>68</v>
       </c>
       <c r="R12" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="S12" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="T12" s="3">
         <v>45894</v>
       </c>
       <c r="U12" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="V12">
         <v>1580314</v>
       </c>
       <c r="W12" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X12">
         <v>14617.9</v>
       </c>
       <c r="Y12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z12" t="s">
         <v>116</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>127</v>
       </c>
       <c r="AA12" s="3">
         <v>45894.62222222222</v>
       </c>
       <c r="AB12" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AC12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="AD12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO12">
         <v>4</v>
       </c>
-      <c r="AH12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ12" t="s">
+      <c r="AP12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT12">
+        <v>4977</v>
+      </c>
+      <c r="AU12">
+        <v>0.4804</v>
+      </c>
+      <c r="AV12">
         <v>3</v>
       </c>
-      <c r="AK12" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>22</v>
+      <c r="AW12">
+        <v>0.7363672847720024</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:49">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E13" s="3">
         <v>45894.43001157408</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="G13">
         <v>1435066</v>
       </c>
       <c r="K13" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M13" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O13">
         <v>13274.36</v>
@@ -2722,93 +2645,120 @@
         <v>73</v>
       </c>
       <c r="R13" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="S13" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T13" s="3">
         <v>45894</v>
       </c>
       <c r="U13" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="V13">
         <v>1435066</v>
       </c>
       <c r="W13" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X13">
         <v>13274.36</v>
       </c>
       <c r="Y13" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AA13" s="3">
         <v>45894.718125</v>
       </c>
       <c r="AB13" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AC13" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AD13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AF13" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AH13" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>153</v>
+      </c>
+      <c r="AO13">
         <v>3</v>
       </c>
-      <c r="AK13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>22</v>
+      <c r="AP13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT13">
+        <v>8691</v>
+      </c>
+      <c r="AU13">
+        <v>0.4616</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>0.7076559471826815</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:49">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E14" s="3">
         <v>45894.42956018518</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>1849147</v>
       </c>
       <c r="K14" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L14" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O14">
         <v>9245.74</v>
@@ -2817,96 +2767,123 @@
         <v>81</v>
       </c>
       <c r="R14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="S14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="T14" s="3">
         <v>45894</v>
       </c>
       <c r="U14" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="V14">
         <v>1849147</v>
       </c>
       <c r="W14" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X14">
         <v>9245.74</v>
       </c>
       <c r="Y14" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AA14" s="3">
         <v>45894.59622685185</v>
       </c>
       <c r="AB14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AC14" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AD14" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AH14" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="AL14" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="AM14" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="AN14" t="s">
-        <v>14</v>
+        <v>152</v>
+      </c>
+      <c r="AO14">
+        <v>2</v>
+      </c>
+      <c r="AP14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT14">
+        <v>15353</v>
+      </c>
+      <c r="AU14">
+        <v>0.4442</v>
+      </c>
+      <c r="AV14">
+        <v>2</v>
+      </c>
+      <c r="AW14">
+        <v>0.5451302227126156</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:49">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E15" s="3">
         <v>45894.35796296296</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>1435066</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M15" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O15">
         <v>13274.36</v>
@@ -2915,96 +2892,123 @@
         <v>73</v>
       </c>
       <c r="R15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="S15" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="T15" s="3">
         <v>45894</v>
       </c>
       <c r="U15" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="V15">
         <v>1435066</v>
       </c>
       <c r="W15" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X15">
         <v>13274.36</v>
       </c>
       <c r="Y15" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z15" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AA15" s="3">
         <v>45894.64605324074</v>
       </c>
       <c r="AB15" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="AC15" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AD15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AH15" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AJ15" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="AL15" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="AM15" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="AN15" t="s">
-        <v>14</v>
+        <v>152</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT15">
+        <v>8691</v>
+      </c>
+      <c r="AU15">
+        <v>0.4282</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
+      </c>
+      <c r="AW15">
+        <v>0.376904070314893</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:49">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E16" s="3">
         <v>45891</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G16">
         <v>1580314</v>
       </c>
       <c r="K16" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O16">
         <v>14617.9</v>
@@ -3013,93 +3017,120 @@
         <v>68</v>
       </c>
       <c r="R16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="S16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="T16" s="3">
         <v>45891</v>
       </c>
       <c r="U16" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="V16">
         <v>1580314</v>
       </c>
       <c r="W16" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X16">
         <v>14617.9</v>
       </c>
       <c r="Y16" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z16" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="AA16" s="3">
         <v>45891</v>
       </c>
       <c r="AB16" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="AC16" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="AD16" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AF16" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AH16" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="AL16" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="AM16" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="AN16" t="s">
-        <v>15</v>
+        <v>147</v>
+      </c>
+      <c r="AO16">
+        <v>1</v>
+      </c>
+      <c r="AP16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT16">
+        <v>4977</v>
+      </c>
+      <c r="AU16">
+        <v>0.4132</v>
+      </c>
+      <c r="AV16">
+        <v>2</v>
+      </c>
+      <c r="AW16">
+        <v>0.5094697612267494</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
+    <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E17" s="3">
         <v>45875.13048611111</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G17">
         <v>1849147</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="O17">
         <v>9245.74</v>
@@ -3108,64 +3139,91 @@
         <v>81</v>
       </c>
       <c r="R17" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="S17" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="T17" s="3">
         <v>45875</v>
       </c>
       <c r="U17" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="V17">
         <v>1849147</v>
       </c>
       <c r="W17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="X17">
         <v>9245.74</v>
       </c>
       <c r="Y17" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="Z17" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AA17" s="3">
         <v>45875.29715277778</v>
       </c>
       <c r="AB17" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="AC17" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="AD17" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AF17" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AH17" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="AL17" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="AM17" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="AN17" t="s">
-        <v>14</v>
+        <v>152</v>
+      </c>
+      <c r="AO17">
+        <v>3</v>
+      </c>
+      <c r="AP17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>154</v>
+      </c>
+      <c r="AT17">
+        <v>15353</v>
+      </c>
+      <c r="AU17">
+        <v>0.3992</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>0.5749333378077777</v>
       </c>
     </row>
   </sheetData>
